--- a/database/relatorio/PE 90006-2024/GABRIEL_LEITZKE_GOTUZZO/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/GABRIEL_LEITZKE_GOTUZZO/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 1 - ABAIXADOR LÍNGUA (348807)</t>
+          <t>Grupo N/A - Item 1 - ABAIXADOR LÍNGUA (348807)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 4 - AFASTADOR CIRÚRGICO MANUAL (474119)</t>
+          <t>Grupo N/A - Item 4 - AFASTADOR CIRÚRGICO MANUAL (474119)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 5 - AFASTADOR CIRÚRGICO MANUAL (474120)</t>
+          <t>Grupo N/A - Item 5 - AFASTADOR CIRÚRGICO MANUAL (474120)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 21 - ALGODÃO (448246)</t>
+          <t>Grupo N/A - Item 21 - ALGODÃO (448246)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 22 - ALGODÃO (448249)</t>
+          <t>Grupo N/A - Item 22 - ALGODÃO (448249)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 58 - COLETOR MATERIAL PÉRFURO-CORTANTE (363484)</t>
+          <t>Grupo N/A - Item 58 - COLETOR MATERIAL PÉRFURO-CORTANTE (363484)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 60 - COMPADRE (URINOL) (385777)</t>
+          <t>Grupo N/A - Item 60 - COMPADRE (URINOL) (385777)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 83 - ESPAÇADOR (362097)</t>
+          <t>Grupo N/A - Item 83 - ESPAÇADOR (362097)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 84 - ESPAÇADOR (473659)</t>
+          <t>Grupo N/A - Item 84 - ESPAÇADOR (473659)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 105 - GEL (438929)</t>
+          <t>Grupo N/A - Item 105 - GEL (438929)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 111 - GORRO HOSPITALAR (428624)</t>
+          <t>Grupo N/A - Item 111 - GORRO HOSPITALAR (428624)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 123 - LENÇOL DESCARTÁVEL USO HOSPITALAR (481790)</t>
+          <t>Grupo N/A - Item 123 - LENÇOL DESCARTÁVEL USO HOSPITALAR (481790)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 135 - MALHA TUBULAR ORTOPÉDICA (445967)</t>
+          <t>Grupo N/A - Item 135 - MALHA TUBULAR ORTOPÉDICA (445967)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Item: 145 - SACO PLÁSTICO LIXO (394188)</t>
+          <t>Grupo N/A - Item 145 - SACO PLÁSTICO LIXO (394188)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Item: 147 - SACO PLÁSTICO LIXO (353773)</t>
+          <t>Grupo N/A - Item 147 - SACO PLÁSTICO LIXO (353773)</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 149 - SERINGA (439622)</t>
+          <t>Grupo N/A - Item 149 - SERINGA (439622)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Item: 150 - SERINGA (439625)</t>
+          <t>Grupo N/A - Item 150 - SERINGA (439625)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Item: 151 - SERINGA (439624)</t>
+          <t>Grupo N/A - Item 151 - SERINGA (439624)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 153 - SERINGA (439627)</t>
+          <t>Grupo N/A - Item 153 - SERINGA (439627)</t>
         </is>
       </c>
     </row>
